--- a/FinViz_Parser/Finviz_StrongBuy/Finviz_StrongBuy.xlsx
+++ b/FinViz_Parser/Finviz_StrongBuy/Finviz_StrongBuy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="566">
   <si>
     <t>Stock Additions</t>
   </si>
@@ -165,67 +165,130 @@
     <t>9/11/2018</t>
   </si>
   <si>
+    <t>9/12/2018</t>
+  </si>
+  <si>
     <t>Stock/Date</t>
   </si>
   <si>
     <t>15.17 (0.53%)</t>
   </si>
   <si>
+    <t>14.81 (-2.31%)</t>
+  </si>
+  <si>
     <t>21.42 (0.0%)</t>
   </si>
   <si>
+    <t>22.0 (0.92%)</t>
+  </si>
+  <si>
     <t>32.33 (-2.27%)</t>
   </si>
   <si>
+    <t>33.03 (0.64%)</t>
+  </si>
+  <si>
     <t>27.23 (-1.93%)</t>
   </si>
   <si>
+    <t>26.89 (-0.35%)</t>
+  </si>
+  <si>
     <t>2.9 (2.11%)</t>
   </si>
   <si>
+    <t>2.8 (-1.41%)</t>
+  </si>
+  <si>
     <t>67.85 (0.22%)</t>
   </si>
   <si>
+    <t>68.1 (0.44%)</t>
+  </si>
+  <si>
     <t>29.98 (0.13%)</t>
   </si>
   <si>
+    <t>30.19 (0.67%)</t>
+  </si>
+  <si>
     <t>13.6 (-0.73%)</t>
   </si>
   <si>
+    <t>13.74 (0.65%)</t>
+  </si>
+  <si>
     <t>1.95 (-1.55%)</t>
   </si>
   <si>
+    <t>1.91 (-3.05%)</t>
+  </si>
+  <si>
     <t>3.29 (-2.66%)</t>
   </si>
   <si>
+    <t>3.12 (-4.88%)</t>
+  </si>
+  <si>
     <t>2.75 (-1.43%)</t>
   </si>
   <si>
+    <t>2.75 (0.0%)</t>
+  </si>
+  <si>
     <t>54.96 (-0.54%)</t>
   </si>
   <si>
+    <t>54.0 (-2.51%)</t>
+  </si>
+  <si>
     <t>23.25 (0.65%)</t>
   </si>
   <si>
+    <t>22.45 (-3.44%)</t>
+  </si>
+  <si>
     <t>2.96 (-3.7%)</t>
   </si>
   <si>
+    <t>2.83 (-0.7%)</t>
+  </si>
+  <si>
     <t>3.9 (2.63%)</t>
   </si>
   <si>
+    <t>3.85 (-2.53%)</t>
+  </si>
+  <si>
     <t>3.35 (0.0%)</t>
   </si>
   <si>
+    <t>3.36 (-0.65%)</t>
+  </si>
+  <si>
     <t>1.91 (-0.35%)</t>
   </si>
   <si>
+    <t>1.91 (0.26%)</t>
+  </si>
+  <si>
     <t>6.14 (-6.97%)</t>
   </si>
   <si>
+    <t>6.26 (3.3%)</t>
+  </si>
+  <si>
     <t>38.58 (-0.96%)</t>
   </si>
   <si>
+    <t>38.65 (-0.51%)</t>
+  </si>
+  <si>
     <t>41.38 (-1.43%)</t>
+  </si>
+  <si>
+    <t>41.09 (-0.89%)</t>
   </si>
   <si>
     <t>Earnings History - Surprises</t>
@@ -1661,7 +1724,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1880,6 +1943,7 @@
     <font>
       <color rgb="00FF0000"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -1901,7 +1965,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1948,6 +2012,7 @@
     <xf borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2260,604 +2325,604 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="43" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="C4" s="44" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D4" s="44" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E4" s="43" t="n">
+      <c r="B4" s="46" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="C4" s="45" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D4" s="45" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="E4" s="46" t="n">
         <v>1.14</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="43" t="n"/>
+      <c r="H4" s="46" t="n"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="43" t="n">
-        <v>21.42</v>
+      <c r="B5" s="46" t="n">
+        <v>22</v>
       </c>
       <c r="C5" s="44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="44" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E5" s="46" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="46" t="n"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="46" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="C6" s="44" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D6" s="44" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="46" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="46" t="n"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="46" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="C7" s="45" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D7" s="45" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="46" t="n"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C8" s="45" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D8" s="45" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E8" s="46" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="46" t="n"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="46" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C9" s="44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="44" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E9" s="46" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="46" t="n"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="46" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C10" s="44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E10" s="46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="46" t="n"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="46" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="C11" s="44" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="44" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E11" s="46" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="46" t="n"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C12" s="45" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="D12" s="45" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="E12" s="46" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="46" t="n"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="46" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C13" s="45" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="D13" s="45" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="E13" s="46" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="46" t="n"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C14" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="44" t="n">
+      <c r="D14" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="43" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="43" t="n"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="43" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="C6" s="45" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="D6" s="45" t="n">
-        <v>-2.27</v>
-      </c>
-      <c r="E6" s="43" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="E14" s="46" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="46" t="n"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="46" t="n">
+        <v>54</v>
+      </c>
+      <c r="C15" s="45" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="D15" s="45" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="E15" s="46" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="43" t="n"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="43" t="n">
-        <v>27.23</v>
-      </c>
-      <c r="C7" s="45" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="D7" s="45" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="E7" s="43" t="s">
+      <c r="H15" s="46" t="n"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="46" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="C16" s="45" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D16" s="45" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="E16" s="46" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="46" t="n"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="46" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="C17" s="45" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D17" s="45" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F17" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="46" t="n"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C18" s="45" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D18" s="45" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="E18" s="46" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="46" t="n"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="46" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C19" s="45" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D19" s="45" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="46" t="n"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C20" s="44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="44" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E20" s="46" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="46" t="n"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="46" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="C21" s="44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E21" s="46" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="46" t="n"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="46" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="C22" s="45" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D22" s="45" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E22" s="46" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="43" t="n"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="43" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C8" s="44" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D8" s="44" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E8" s="43" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="F8" s="43" t="s">
+      <c r="G22" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="46" t="n"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="46" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="C23" s="45" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="D23" s="45" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="E23" s="46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G23" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="43" t="n"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="43" t="n">
-        <v>67.84999999999999</v>
-      </c>
-      <c r="C9" s="44" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D9" s="44" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E9" s="43" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="43" t="n"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="43" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="C10" s="44" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="43" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="43" t="n"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="43" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C11" s="45" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="D11" s="45" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="E11" s="43" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="43" t="n"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C12" s="45" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="D12" s="45" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="E12" s="43" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="43" t="n"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C13" s="45" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="D13" s="45" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="E13" s="43" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="43" t="n"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="43" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="C14" s="45" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="D14" s="45" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="E14" s="43" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="43" t="n"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="43" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="C15" s="45" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="E15" s="43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="43" t="n"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="43" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="C16" s="44" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E16" s="43" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="43" t="n"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="43" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="C17" s="45" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="43" t="n"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="43" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C18" s="44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D18" s="44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E18" s="43" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="43" t="n"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="C19" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="43" t="n"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="43" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C20" s="45" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="D20" s="45" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="E20" s="43" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="43" t="n"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="43" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C21" s="45" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="D21" s="45" t="n">
-        <v>-6.97</v>
-      </c>
-      <c r="E21" s="43" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="43" t="n"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="43" t="n">
-        <v>38.58</v>
-      </c>
-      <c r="C22" s="45" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="D22" s="45" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="E22" s="43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="43" t="n"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="43" t="n">
-        <v>41.38</v>
-      </c>
-      <c r="C23" s="45" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="D23" s="45" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="E23" s="43" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="43" t="n"/>
+      <c r="H23" s="46" t="n"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="43" t="n"/>
-      <c r="B24" s="43" t="n"/>
-      <c r="C24" s="43" t="n"/>
-      <c r="D24" s="43" t="n"/>
-      <c r="E24" s="43" t="n"/>
-      <c r="F24" s="43" t="n"/>
-      <c r="G24" s="43" t="n"/>
-      <c r="H24" s="43" t="n"/>
+      <c r="A24" s="46" t="n"/>
+      <c r="B24" s="46" t="n"/>
+      <c r="C24" s="46" t="n"/>
+      <c r="D24" s="46" t="n"/>
+      <c r="E24" s="46" t="n"/>
+      <c r="F24" s="46" t="n"/>
+      <c r="G24" s="46" t="n"/>
+      <c r="H24" s="46" t="n"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="43" t="n"/>
-      <c r="B25" s="43" t="n"/>
-      <c r="C25" s="43" t="n"/>
-      <c r="D25" s="43" t="n"/>
-      <c r="E25" s="43" t="n"/>
-      <c r="F25" s="43" t="n"/>
-      <c r="G25" s="43" t="n"/>
-      <c r="H25" s="43" t="n"/>
+      <c r="A25" s="46" t="n"/>
+      <c r="B25" s="46" t="n"/>
+      <c r="C25" s="46" t="n"/>
+      <c r="D25" s="46" t="n"/>
+      <c r="E25" s="46" t="n"/>
+      <c r="F25" s="46" t="n"/>
+      <c r="G25" s="46" t="n"/>
+      <c r="H25" s="46" t="n"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="43" t="n"/>
-      <c r="B26" s="43" t="n"/>
-      <c r="C26" s="43" t="n"/>
-      <c r="D26" s="43" t="n"/>
-      <c r="E26" s="43" t="n"/>
-      <c r="F26" s="43" t="n"/>
-      <c r="G26" s="43" t="n"/>
-      <c r="H26" s="43" t="n"/>
+      <c r="A26" s="46" t="n"/>
+      <c r="B26" s="46" t="n"/>
+      <c r="C26" s="46" t="n"/>
+      <c r="D26" s="46" t="n"/>
+      <c r="E26" s="46" t="n"/>
+      <c r="F26" s="46" t="n"/>
+      <c r="G26" s="46" t="n"/>
+      <c r="H26" s="46" t="n"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="43" t="n"/>
-      <c r="B27" s="43" t="n"/>
-      <c r="C27" s="43" t="n"/>
-      <c r="D27" s="43" t="n"/>
-      <c r="E27" s="43" t="n"/>
-      <c r="F27" s="43" t="n"/>
-      <c r="G27" s="43" t="n"/>
-      <c r="H27" s="43" t="n"/>
+      <c r="A27" s="46" t="n"/>
+      <c r="B27" s="46" t="n"/>
+      <c r="C27" s="46" t="n"/>
+      <c r="D27" s="46" t="n"/>
+      <c r="E27" s="46" t="n"/>
+      <c r="F27" s="46" t="n"/>
+      <c r="G27" s="46" t="n"/>
+      <c r="H27" s="46" t="n"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="43" t="n"/>
-      <c r="B28" s="43" t="n"/>
-      <c r="C28" s="43" t="n"/>
-      <c r="D28" s="43" t="n"/>
-      <c r="E28" s="43" t="n"/>
-      <c r="F28" s="43" t="n"/>
-      <c r="G28" s="43" t="n"/>
-      <c r="H28" s="43" t="n"/>
+      <c r="A28" s="46" t="n"/>
+      <c r="B28" s="46" t="n"/>
+      <c r="C28" s="46" t="n"/>
+      <c r="D28" s="46" t="n"/>
+      <c r="E28" s="46" t="n"/>
+      <c r="F28" s="46" t="n"/>
+      <c r="G28" s="46" t="n"/>
+      <c r="H28" s="46" t="n"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="43" t="n"/>
-      <c r="B29" s="43" t="n"/>
-      <c r="C29" s="43" t="n"/>
-      <c r="D29" s="43" t="n"/>
-      <c r="E29" s="43" t="n"/>
-      <c r="F29" s="43" t="n"/>
-      <c r="G29" s="43" t="n"/>
-      <c r="H29" s="43" t="n"/>
+      <c r="A29" s="46" t="n"/>
+      <c r="B29" s="46" t="n"/>
+      <c r="C29" s="46" t="n"/>
+      <c r="D29" s="46" t="n"/>
+      <c r="E29" s="46" t="n"/>
+      <c r="F29" s="46" t="n"/>
+      <c r="G29" s="46" t="n"/>
+      <c r="H29" s="46" t="n"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="43" t="n"/>
-      <c r="B30" s="43" t="n"/>
-      <c r="C30" s="43" t="n"/>
-      <c r="D30" s="43" t="n"/>
-      <c r="E30" s="43" t="n"/>
-      <c r="F30" s="43" t="n"/>
-      <c r="G30" s="43" t="n"/>
-      <c r="H30" s="43" t="n"/>
+      <c r="A30" s="46" t="n"/>
+      <c r="B30" s="46" t="n"/>
+      <c r="C30" s="46" t="n"/>
+      <c r="D30" s="46" t="n"/>
+      <c r="E30" s="46" t="n"/>
+      <c r="F30" s="46" t="n"/>
+      <c r="G30" s="46" t="n"/>
+      <c r="H30" s="46" t="n"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="43" t="n"/>
-      <c r="B31" s="43" t="n"/>
-      <c r="C31" s="43" t="n"/>
-      <c r="D31" s="43" t="n"/>
-      <c r="E31" s="43" t="n"/>
-      <c r="F31" s="43" t="n"/>
-      <c r="G31" s="43" t="n"/>
-      <c r="H31" s="43" t="n"/>
+      <c r="A31" s="46" t="n"/>
+      <c r="B31" s="46" t="n"/>
+      <c r="C31" s="46" t="n"/>
+      <c r="D31" s="46" t="n"/>
+      <c r="E31" s="46" t="n"/>
+      <c r="F31" s="46" t="n"/>
+      <c r="G31" s="46" t="n"/>
+      <c r="H31" s="46" t="n"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="43" t="n"/>
-      <c r="B32" s="43" t="n"/>
-      <c r="C32" s="43" t="n"/>
-      <c r="D32" s="43" t="n"/>
-      <c r="E32" s="43" t="n"/>
-      <c r="F32" s="43" t="n"/>
-      <c r="G32" s="43" t="n"/>
-      <c r="H32" s="43" t="n"/>
+      <c r="A32" s="46" t="n"/>
+      <c r="B32" s="46" t="n"/>
+      <c r="C32" s="46" t="n"/>
+      <c r="D32" s="46" t="n"/>
+      <c r="E32" s="46" t="n"/>
+      <c r="F32" s="46" t="n"/>
+      <c r="G32" s="46" t="n"/>
+      <c r="H32" s="46" t="n"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="43" t="n"/>
-      <c r="B33" s="43" t="n"/>
-      <c r="C33" s="43" t="n"/>
-      <c r="D33" s="43" t="n"/>
-      <c r="E33" s="43" t="n"/>
-      <c r="F33" s="43" t="n"/>
-      <c r="G33" s="43" t="n"/>
-      <c r="H33" s="43" t="n"/>
+      <c r="A33" s="46" t="n"/>
+      <c r="B33" s="46" t="n"/>
+      <c r="C33" s="46" t="n"/>
+      <c r="D33" s="46" t="n"/>
+      <c r="E33" s="46" t="n"/>
+      <c r="F33" s="46" t="n"/>
+      <c r="G33" s="46" t="n"/>
+      <c r="H33" s="46" t="n"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="43" t="n"/>
-      <c r="B34" s="43" t="n"/>
-      <c r="C34" s="43" t="n"/>
-      <c r="D34" s="43" t="n"/>
-      <c r="E34" s="43" t="n"/>
-      <c r="F34" s="43" t="n"/>
-      <c r="G34" s="43" t="n"/>
-      <c r="H34" s="43" t="n"/>
+      <c r="A34" s="46" t="n"/>
+      <c r="B34" s="46" t="n"/>
+      <c r="C34" s="46" t="n"/>
+      <c r="D34" s="46" t="n"/>
+      <c r="E34" s="46" t="n"/>
+      <c r="F34" s="46" t="n"/>
+      <c r="G34" s="46" t="n"/>
+      <c r="H34" s="46" t="n"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="43" t="n"/>
-      <c r="B35" s="43" t="n"/>
-      <c r="C35" s="43" t="n"/>
-      <c r="D35" s="43" t="n"/>
-      <c r="E35" s="43" t="n"/>
-      <c r="F35" s="43" t="n"/>
-      <c r="G35" s="43" t="n"/>
-      <c r="H35" s="43" t="n"/>
+      <c r="A35" s="46" t="n"/>
+      <c r="B35" s="46" t="n"/>
+      <c r="C35" s="46" t="n"/>
+      <c r="D35" s="46" t="n"/>
+      <c r="E35" s="46" t="n"/>
+      <c r="F35" s="46" t="n"/>
+      <c r="G35" s="46" t="n"/>
+      <c r="H35" s="46" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2871,7 +2936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D37" sqref="A1:XFD1048576"/>
@@ -2935,115 +3000,113 @@
         <v>47</v>
       </c>
       <c r="I2" s="45" t="n">
-        <v>0</v>
+        <v>-2.37</v>
       </c>
       <c r="K2" s="41" t="n"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="C3" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="44" t="n">
-        <v>0</v>
+        <v>14.81</v>
+      </c>
+      <c r="C3" s="45" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D3" s="45" t="n">
+        <v>-2.31</v>
       </c>
       <c r="E3" t="n">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="41" t="n"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="C4" s="45" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="D4" s="45" t="n">
-        <v>-2.27</v>
+        <v>21.42</v>
+      </c>
+      <c r="C4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="44" t="n">
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.78</v>
+        <v>0.99</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="45" t="n">
-        <v>0</v>
+      <c r="I4" s="44" t="n">
+        <v>2.71</v>
       </c>
       <c r="K4" s="41" t="n"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>27.23</v>
-      </c>
-      <c r="C5" s="45" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="D5" s="45" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="44" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.99</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="41" t="n"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C6" s="44" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D6" s="44" t="n">
-        <v>2.11</v>
+        <v>32.33</v>
+      </c>
+      <c r="C6" s="45" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="D6" s="45" t="n">
+        <v>-2.27</v>
       </c>
       <c r="E6" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -3054,116 +3117,114 @@
       <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="45" t="n">
-        <v>0</v>
+      <c r="I6" s="44" t="n">
+        <v>2.17</v>
       </c>
       <c r="K6" s="41" t="n"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>67.84999999999999</v>
+        <v>33.03</v>
       </c>
       <c r="C7" s="44" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="D7" s="44" t="n">
-        <v>0.22</v>
+        <v>0.64</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.14</v>
+        <v>1.78</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="41" t="n"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="C8" s="44" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D8" s="44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.65</v>
+        <v>27.23</v>
+      </c>
+      <c r="C8" s="45" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="D8" s="45" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="44" t="n">
-        <v>0.03</v>
+      <c r="I8" s="45" t="n">
+        <v>-1.25</v>
       </c>
       <c r="K8" s="41" t="n"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>13.6</v>
+        <v>26.88</v>
       </c>
       <c r="C9" s="45" t="n">
         <v>-0.1</v>
       </c>
       <c r="D9" s="45" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.19</v>
+        <v>-0.39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="40" t="n"/>
+        <v>48</v>
+      </c>
+      <c r="I9" s="44" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C10" s="45" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="D10" s="45" t="n">
-        <v>-1.55</v>
+        <v>2.9</v>
+      </c>
+      <c r="C10" s="44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D10" s="44" t="n">
+        <v>2.11</v>
       </c>
       <c r="E10" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -3175,235 +3236,231 @@
         <v>47</v>
       </c>
       <c r="I10" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="40" t="n"/>
+        <v>-3.45</v>
+      </c>
+      <c r="K10" s="41" t="n"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C11" s="45" t="n">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="D11" s="45" t="n">
-        <v>-2.37</v>
+        <v>-1.41</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.71</v>
+        <v>2.74</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" s="45" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="K11" s="41" t="n"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="C12" s="45" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="D12" s="45" t="n">
-        <v>-1.43</v>
+        <v>67.84999999999999</v>
+      </c>
+      <c r="C12" s="44" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="44" t="n">
+        <v>0.22</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.31</v>
+        <v>-1.14</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="45" t="n">
-        <v>0</v>
+      <c r="I12" s="44" t="n">
+        <v>0.37</v>
       </c>
       <c r="K12" s="41" t="n"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="C13" s="45" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="D13" s="45" t="n">
-        <v>-0.54</v>
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C13" s="44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="44" t="n">
+        <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>1.63</v>
+        <v>-1.14</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="41" t="n"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>23.25</v>
+        <v>29.97</v>
       </c>
       <c r="C14" s="44" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="D14" s="44" t="n">
-        <v>0.65</v>
+        <v>0.1</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.32</v>
+        <v>1.65</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="45" t="n">
-        <v>0</v>
+      <c r="I14" s="44" t="n">
+        <v>0.73</v>
       </c>
       <c r="K14" s="41" t="n"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="C15" s="45" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
+        <v>30.19</v>
+      </c>
+      <c r="C15" s="44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.65</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="41" t="n"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C16" s="44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <v>2.63</v>
+        <v>13.6</v>
+      </c>
+      <c r="C16" s="45" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D16" s="45" t="n">
+        <v>-0.73</v>
       </c>
       <c r="E16" t="n">
-        <v>2.11</v>
+        <v>0.19</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="41" t="n"/>
+      <c r="I16" s="44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K16" s="40" t="n"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>3.35</v>
+        <v>13.74</v>
       </c>
       <c r="C17" s="44" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D17" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
+        <v>0.65</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.19</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="41" t="n"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="C18" s="45" t="n">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="D18" s="45" t="n">
-        <v>-0.35</v>
+        <v>-1.55</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3</v>
+        <v>3.06</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -3415,25 +3472,25 @@
         <v>47</v>
       </c>
       <c r="I18" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="41" t="n"/>
+        <v>-2.05</v>
+      </c>
+      <c r="K18" s="40" t="n"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>6.14</v>
+        <v>1.91</v>
       </c>
       <c r="C19" s="45" t="n">
-        <v>-0.46</v>
+        <v>-0.06</v>
       </c>
       <c r="D19" s="45" t="n">
-        <v>-6.97</v>
+        <v>-3.05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.27</v>
+        <v>3.06</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -3442,74 +3499,662 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="41" t="n"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>38.58</v>
+        <v>3.3</v>
       </c>
       <c r="C20" s="45" t="n">
-        <v>-0.38</v>
+        <v>-0.08</v>
       </c>
       <c r="D20" s="45" t="n">
-        <v>-0.96</v>
+        <v>-2.37</v>
       </c>
       <c r="E20" t="n">
-        <v>1.63</v>
+        <v>-0.71</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="45" t="n">
-        <v>0</v>
+        <v>-5.45</v>
       </c>
       <c r="K20" s="41" t="n"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>41.38</v>
+        <v>3.12</v>
       </c>
       <c r="C21" s="45" t="n">
-        <v>-0.6</v>
+        <v>-0.16</v>
       </c>
       <c r="D21" s="45" t="n">
-        <v>-1.43</v>
+        <v>-4.88</v>
       </c>
       <c r="E21" t="n">
-        <v>1.9</v>
+        <v>-0.71</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="41" t="n"/>
-    </row>
-    <row r="22" spans="1:11"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C22" s="45" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D22" s="45" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="41" t="n"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C23" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="C24" s="45" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D24" s="45" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="45" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="K24" s="41" t="n"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="n">
+        <v>54</v>
+      </c>
+      <c r="C25" s="45" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="D25" s="45" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="C26" s="44" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D26" s="44" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="45" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="K26" s="41" t="n"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="C27" s="45" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D27" s="45" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C28" s="45" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D28" s="45" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="45" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="K28" s="41" t="n"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="C29" s="45" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D29" s="45" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C30" s="44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="45" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="K30" s="41" t="n"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C31" s="45" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D31" s="45" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C32" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K32" s="41" t="n"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C33" s="45" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D33" s="45" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C34" s="45" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D34" s="45" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="41" t="n"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C35" s="44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="44" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C36" s="45" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="D36" s="45" t="n">
+        <v>-6.97</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K36" s="41" t="n"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="C37" s="44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="C38" s="45" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="D38" s="45" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="44" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K38" s="41" t="n"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="C39" s="45" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D39" s="45" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="n">
+        <v>41.38</v>
+      </c>
+      <c r="C40" s="45" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D40" s="45" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="45" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="K40" s="41" t="n"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="C41" s="45" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="D41" s="45" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
@@ -3532,10 +4177,13 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -3543,9 +4191,11 @@
         <v>8</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="40" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>51</v>
+      </c>
       <c r="D2" s="40" t="n"/>
       <c r="E2" s="34" t="n"/>
       <c r="F2" s="9" t="n"/>
@@ -3573,9 +4223,11 @@
         <v>11</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="40" t="n"/>
+        <v>52</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" s="40" t="n"/>
       <c r="E3" s="34" t="n"/>
       <c r="F3" s="9" t="n"/>
@@ -3603,9 +4255,11 @@
         <v>14</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="41" t="n"/>
+        <v>54</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="41" t="n"/>
       <c r="E4" s="34" t="n"/>
       <c r="F4" s="8" t="n"/>
@@ -3633,9 +4287,11 @@
         <v>15</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="41" t="n"/>
+        <v>56</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" s="41" t="n"/>
       <c r="E5" s="35" t="n"/>
       <c r="F5" s="9" t="n"/>
@@ -3663,9 +4319,11 @@
         <v>19</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="40" t="n"/>
+        <v>58</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>59</v>
+      </c>
       <c r="D6" s="40" t="n"/>
       <c r="E6" s="34" t="n"/>
       <c r="F6" s="8" t="n"/>
@@ -3693,9 +4351,11 @@
         <v>20</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="40" t="n"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>61</v>
+      </c>
       <c r="D7" s="40" t="n"/>
       <c r="E7" s="35" t="n"/>
       <c r="F7" s="9" t="n"/>
@@ -3723,9 +4383,11 @@
         <v>22</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="40" t="n"/>
+        <v>62</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>63</v>
+      </c>
       <c r="D8" s="40" t="n"/>
       <c r="E8" s="35" t="n"/>
       <c r="F8" s="8" t="n"/>
@@ -3753,9 +4415,11 @@
         <v>25</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="41" t="n"/>
+        <v>64</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>65</v>
+      </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="35" t="n"/>
       <c r="F9" s="9" t="n"/>
@@ -3783,9 +4447,11 @@
         <v>28</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="41" t="n"/>
+        <v>66</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="34" t="n"/>
       <c r="F10" s="9" t="n"/>
@@ -3813,9 +4479,11 @@
         <v>29</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="41" t="n"/>
+        <v>68</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="35" t="n"/>
       <c r="F11" s="8" t="n"/>
@@ -3843,9 +4511,11 @@
         <v>31</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="41" t="n"/>
+        <v>70</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="35" t="n"/>
       <c r="F12" s="8" t="n"/>
@@ -3873,9 +4543,11 @@
         <v>32</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="41" t="n"/>
+        <v>72</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="35" t="n"/>
       <c r="F13" s="8" t="n"/>
@@ -3903,9 +4575,11 @@
         <v>33</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="40" t="n"/>
+        <v>74</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="40" t="n"/>
       <c r="E14" s="35" t="n"/>
       <c r="F14" s="8" t="n"/>
@@ -3933,9 +4607,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="41" t="n"/>
+        <v>76</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>77</v>
+      </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="35" t="n"/>
       <c r="F15" s="9" t="n"/>
@@ -3963,9 +4639,11 @@
         <v>37</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="40" t="n"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="D16" s="40" t="n"/>
       <c r="E16" s="35" t="n"/>
       <c r="F16" s="8" t="n"/>
@@ -3993,9 +4671,11 @@
         <v>38</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="40" t="n"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>81</v>
+      </c>
       <c r="D17" s="40" t="n"/>
       <c r="E17" s="35" t="n"/>
       <c r="F17" s="8" t="n"/>
@@ -4023,9 +4703,11 @@
         <v>40</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="40" t="n"/>
+        <v>82</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>83</v>
+      </c>
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="35" t="n"/>
       <c r="F18" s="9" t="n"/>
@@ -4053,9 +4735,11 @@
         <v>41</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="41" t="n"/>
+        <v>84</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>85</v>
+      </c>
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="34" t="n"/>
       <c r="F19" s="8" t="n"/>
@@ -4083,9 +4767,11 @@
         <v>42</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="41" t="n"/>
+        <v>86</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="34" t="n"/>
       <c r="F20" s="9" t="n"/>
@@ -4113,9 +4799,11 @@
         <v>44</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="41" t="n"/>
+        <v>88</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>89</v>
+      </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="35" t="n"/>
       <c r="F21" s="9" t="n"/>
@@ -4611,10 +5299,13 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -4624,7 +5315,9 @@
       <c r="B2" s="44" t="n">
         <v>16.64</v>
       </c>
-      <c r="C2" s="40" t="n"/>
+      <c r="C2" s="44" t="n">
+        <v>16.49</v>
+      </c>
       <c r="D2" s="40" t="n"/>
       <c r="E2" s="35" t="n"/>
       <c r="F2" s="9" t="n"/>
@@ -4654,7 +5347,9 @@
       <c r="B3" s="44" t="n">
         <v>21.61</v>
       </c>
-      <c r="C3" s="40" t="n"/>
+      <c r="C3" s="45" t="n">
+        <v>21.65</v>
+      </c>
       <c r="D3" s="40" t="n"/>
       <c r="E3" s="35" t="n"/>
       <c r="F3" s="9" t="n"/>
@@ -4684,7 +5379,9 @@
       <c r="B4" s="45" t="n">
         <v>31.86</v>
       </c>
-      <c r="C4" s="41" t="n"/>
+      <c r="C4" s="45" t="n">
+        <v>31.87</v>
+      </c>
       <c r="D4" s="41" t="n"/>
       <c r="E4" s="35" t="n"/>
       <c r="F4" s="9" t="n"/>
@@ -4714,7 +5411,9 @@
       <c r="B5" s="45" t="n">
         <v>25.36</v>
       </c>
-      <c r="C5" s="41" t="n"/>
+      <c r="C5" s="45" t="n">
+        <v>25.44</v>
+      </c>
       <c r="D5" s="41" t="n"/>
       <c r="E5" s="35" t="n"/>
       <c r="F5" s="8" t="n"/>
@@ -4744,7 +5443,9 @@
       <c r="B6" s="44" t="n">
         <v>3.16</v>
       </c>
-      <c r="C6" s="40" t="n"/>
+      <c r="C6" s="44" t="n">
+        <v>3.14</v>
+      </c>
       <c r="D6" s="40" t="n"/>
       <c r="E6" s="34" t="n"/>
       <c r="F6" s="9" t="n"/>
@@ -4774,7 +5475,9 @@
       <c r="B7" s="45" t="n">
         <v>64.98</v>
       </c>
-      <c r="C7" s="41" t="n"/>
+      <c r="C7" s="45" t="n">
+        <v>65.08</v>
+      </c>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="34" t="n"/>
       <c r="F7" s="8" t="n"/>
@@ -4804,7 +5507,9 @@
       <c r="B8" s="44" t="n">
         <v>31.13</v>
       </c>
-      <c r="C8" s="40" t="n"/>
+      <c r="C8" s="44" t="n">
+        <v>31.07</v>
+      </c>
       <c r="D8" s="40" t="n"/>
       <c r="E8" s="35" t="n"/>
       <c r="F8" s="9" t="n"/>
@@ -4834,7 +5539,9 @@
       <c r="B9" s="44" t="n">
         <v>14</v>
       </c>
-      <c r="C9" s="40" t="n"/>
+      <c r="C9" s="44" t="n">
+        <v>14.02</v>
+      </c>
       <c r="D9" s="40" t="n"/>
       <c r="E9" s="34" t="n"/>
       <c r="F9" s="8" t="n"/>
@@ -4864,7 +5571,9 @@
       <c r="B10" s="45" t="n">
         <v>1.9</v>
       </c>
-      <c r="C10" s="41" t="n"/>
+      <c r="C10" s="45" t="n">
+        <v>1.9</v>
+      </c>
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="35" t="n"/>
       <c r="F10" s="9" t="n"/>
@@ -4894,7 +5603,9 @@
       <c r="B11" s="45" t="n">
         <v>3.16</v>
       </c>
-      <c r="C11" s="41" t="n"/>
+      <c r="C11" s="44" t="n">
+        <v>3.17</v>
+      </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="34" t="n"/>
       <c r="F11" s="9" t="n"/>
@@ -4924,7 +5635,9 @@
       <c r="B12" s="45" t="n">
         <v>2.63</v>
       </c>
-      <c r="C12" s="41" t="n"/>
+      <c r="C12" s="45" t="n">
+        <v>2.62</v>
+      </c>
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="34" t="n"/>
       <c r="F12" s="9" t="n"/>
@@ -4954,7 +5667,9 @@
       <c r="B13" s="44" t="n">
         <v>60.41</v>
       </c>
-      <c r="C13" s="40" t="n"/>
+      <c r="C13" s="44" t="n">
+        <v>59.98</v>
+      </c>
       <c r="D13" s="40" t="n"/>
       <c r="E13" s="34" t="n"/>
       <c r="F13" s="9" t="n"/>
@@ -4984,7 +5699,9 @@
       <c r="B14" s="45" t="n">
         <v>19.56</v>
       </c>
-      <c r="C14" s="41" t="n"/>
+      <c r="C14" s="45" t="n">
+        <v>19.7</v>
+      </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="35" t="n"/>
       <c r="F14" s="9" t="n"/>
@@ -5014,7 +5731,9 @@
       <c r="B15" s="45" t="n">
         <v>2.88</v>
       </c>
-      <c r="C15" s="41" t="n"/>
+      <c r="C15" s="44" t="n">
+        <v>2.84</v>
+      </c>
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="34" t="n"/>
       <c r="F15" s="8" t="n"/>
@@ -5044,7 +5763,9 @@
       <c r="B16" s="44" t="n">
         <v>4.12</v>
       </c>
-      <c r="C16" s="40" t="n"/>
+      <c r="C16" s="44" t="n">
+        <v>4.11</v>
+      </c>
       <c r="D16" s="40" t="n"/>
       <c r="E16" s="34" t="n"/>
       <c r="F16" s="8" t="n"/>
@@ -5074,7 +5795,9 @@
       <c r="B17" s="44" t="n">
         <v>3.75</v>
       </c>
-      <c r="C17" s="40" t="n"/>
+      <c r="C17" s="44" t="n">
+        <v>3.73</v>
+      </c>
       <c r="D17" s="40" t="n"/>
       <c r="E17" s="35" t="n"/>
       <c r="F17" s="9" t="n"/>
@@ -5104,7 +5827,9 @@
       <c r="B18" s="44" t="n">
         <v>1.98</v>
       </c>
-      <c r="C18" s="40" t="n"/>
+      <c r="C18" s="44" t="n">
+        <v>1.98</v>
+      </c>
       <c r="D18" s="40" t="n"/>
       <c r="E18" s="34" t="n"/>
       <c r="F18" s="9" t="n"/>
@@ -5134,7 +5859,9 @@
       <c r="B19" s="44" t="n">
         <v>6.81</v>
       </c>
-      <c r="C19" s="40" t="n"/>
+      <c r="C19" s="44" t="n">
+        <v>6.75</v>
+      </c>
       <c r="D19" s="40" t="n"/>
       <c r="E19" s="35" t="n"/>
       <c r="F19" s="8" t="n"/>
@@ -5164,7 +5891,9 @@
       <c r="B20" s="44" t="n">
         <v>41.14</v>
       </c>
-      <c r="C20" s="40" t="n"/>
+      <c r="C20" s="44" t="n">
+        <v>40.98</v>
+      </c>
       <c r="D20" s="40" t="n"/>
       <c r="E20" s="35" t="n"/>
       <c r="F20" s="8" t="n"/>
@@ -5194,7 +5923,9 @@
       <c r="B21" s="45" t="n">
         <v>40.78</v>
       </c>
-      <c r="C21" s="41" t="n"/>
+      <c r="C21" s="45" t="n">
+        <v>40.97</v>
+      </c>
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="34" t="n"/>
       <c r="F21" s="8" t="n"/>
@@ -5669,10 +6400,13 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -5682,7 +6416,9 @@
       <c r="B2" s="44" t="n">
         <v>18.34</v>
       </c>
-      <c r="C2" s="40" t="n"/>
+      <c r="C2" s="44" t="n">
+        <v>18.3</v>
+      </c>
       <c r="D2" s="40" t="n"/>
       <c r="E2" s="34" t="n"/>
       <c r="F2" s="8" t="n"/>
@@ -5712,7 +6448,9 @@
       <c r="B3" s="44" t="n">
         <v>21.45</v>
       </c>
-      <c r="C3" s="40" t="n"/>
+      <c r="C3" s="45" t="n">
+        <v>21.44</v>
+      </c>
       <c r="D3" s="40" t="n"/>
       <c r="E3" s="34" t="n"/>
       <c r="F3" s="9" t="n"/>
@@ -5742,7 +6480,9 @@
       <c r="B4" s="44" t="n">
         <v>32.9</v>
       </c>
-      <c r="C4" s="40" t="n"/>
+      <c r="C4" s="45" t="n">
+        <v>32.89</v>
+      </c>
       <c r="D4" s="40" t="n"/>
       <c r="E4" s="34" t="n"/>
       <c r="F4" s="9" t="n"/>
@@ -5772,7 +6512,9 @@
       <c r="B5" s="45" t="n">
         <v>23.77</v>
       </c>
-      <c r="C5" s="41" t="n"/>
+      <c r="C5" s="45" t="n">
+        <v>23.8</v>
+      </c>
       <c r="D5" s="41" t="n"/>
       <c r="E5" s="35" t="n"/>
       <c r="F5" s="8" t="n"/>
@@ -5802,7 +6544,9 @@
       <c r="B6" s="44" t="n">
         <v>8.31</v>
       </c>
-      <c r="C6" s="40" t="n"/>
+      <c r="C6" s="44" t="n">
+        <v>8.23</v>
+      </c>
       <c r="D6" s="40" t="n"/>
       <c r="E6" s="34" t="n"/>
       <c r="F6" s="9" t="n"/>
@@ -5832,7 +6576,9 @@
       <c r="B7" s="45" t="n">
         <v>55.22</v>
       </c>
-      <c r="C7" s="41" t="n"/>
+      <c r="C7" s="45" t="n">
+        <v>55.45</v>
+      </c>
       <c r="D7" s="41" t="n"/>
       <c r="E7" s="34" t="n"/>
       <c r="F7" s="8" t="n"/>
@@ -5862,7 +6608,9 @@
       <c r="B8" s="45" t="n">
         <v>28.77</v>
       </c>
-      <c r="C8" s="41" t="n"/>
+      <c r="C8" s="45" t="n">
+        <v>28.79</v>
+      </c>
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="35" t="n"/>
       <c r="F8" s="9" t="n"/>
@@ -5892,7 +6640,9 @@
       <c r="B9" s="45" t="n">
         <v>12.3</v>
       </c>
-      <c r="C9" s="41" t="n"/>
+      <c r="C9" s="45" t="n">
+        <v>12.34</v>
+      </c>
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="34" t="n"/>
       <c r="F9" s="8" t="n"/>
@@ -5922,7 +6672,9 @@
       <c r="B10" s="44" t="n">
         <v>3.29</v>
       </c>
-      <c r="C10" s="40" t="n"/>
+      <c r="C10" s="44" t="n">
+        <v>3.27</v>
+      </c>
       <c r="D10" s="40" t="n"/>
       <c r="E10" s="35" t="n"/>
       <c r="F10" s="9" t="n"/>
@@ -5952,7 +6704,9 @@
       <c r="B11" s="45" t="n">
         <v>2.66</v>
       </c>
-      <c r="C11" s="41" t="n"/>
+      <c r="C11" s="45" t="n">
+        <v>2.66</v>
+      </c>
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="34" t="n"/>
       <c r="F11" s="9" t="n"/>
@@ -5982,7 +6736,9 @@
       <c r="B12" s="44" t="n">
         <v>2.86</v>
       </c>
-      <c r="C12" s="40" t="n"/>
+      <c r="C12" s="44" t="n">
+        <v>2.86</v>
+      </c>
       <c r="D12" s="40" t="n"/>
       <c r="E12" s="34" t="n"/>
       <c r="F12" s="9" t="n"/>
@@ -6012,7 +6768,9 @@
       <c r="B13" s="44" t="n">
         <v>62.41</v>
       </c>
-      <c r="C13" s="40" t="n"/>
+      <c r="C13" s="44" t="n">
+        <v>62.4</v>
+      </c>
       <c r="D13" s="40" t="n"/>
       <c r="E13" s="34" t="n"/>
       <c r="F13" s="9" t="n"/>
@@ -6042,7 +6800,9 @@
       <c r="B14" s="45" t="n">
         <v>17.92</v>
       </c>
-      <c r="C14" s="41" t="n"/>
+      <c r="C14" s="45" t="n">
+        <v>18</v>
+      </c>
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="35" t="n"/>
       <c r="F14" s="9" t="n"/>
@@ -6072,7 +6832,9 @@
       <c r="B15" s="44" t="n">
         <v>5.43</v>
       </c>
-      <c r="C15" s="40" t="n"/>
+      <c r="C15" s="44" t="n">
+        <v>5.39</v>
+      </c>
       <c r="D15" s="40" t="n"/>
       <c r="E15" s="34" t="n"/>
       <c r="F15" s="8" t="n"/>
@@ -6102,7 +6864,9 @@
       <c r="B16" s="44" t="n">
         <v>4.63</v>
       </c>
-      <c r="C16" s="40" t="n"/>
+      <c r="C16" s="44" t="n">
+        <v>4.61</v>
+      </c>
       <c r="D16" s="40" t="n"/>
       <c r="E16" s="34" t="n"/>
       <c r="F16" s="8" t="n"/>
@@ -6132,7 +6896,9 @@
       <c r="B17" s="44" t="n">
         <v>4.18</v>
       </c>
-      <c r="C17" s="40" t="n"/>
+      <c r="C17" s="44" t="n">
+        <v>4.17</v>
+      </c>
       <c r="D17" s="40" t="n"/>
       <c r="E17" s="35" t="n"/>
       <c r="F17" s="9" t="n"/>
@@ -6162,7 +6928,9 @@
       <c r="B18" s="44" t="n">
         <v>2.02</v>
       </c>
-      <c r="C18" s="40" t="n"/>
+      <c r="C18" s="44" t="n">
+        <v>2.02</v>
+      </c>
       <c r="D18" s="40" t="n"/>
       <c r="E18" s="34" t="n"/>
       <c r="F18" s="9" t="n"/>
@@ -6192,7 +6960,9 @@
       <c r="B19" s="44" t="n">
         <v>7.94</v>
       </c>
-      <c r="C19" s="40" t="n"/>
+      <c r="C19" s="44" t="n">
+        <v>7.92</v>
+      </c>
       <c r="D19" s="40" t="n"/>
       <c r="E19" s="34" t="n"/>
       <c r="F19" s="8" t="n"/>
@@ -6222,7 +6992,9 @@
       <c r="B20" s="44" t="n">
         <v>43.47</v>
       </c>
-      <c r="C20" s="40" t="n"/>
+      <c r="C20" s="44" t="n">
+        <v>43.43</v>
+      </c>
       <c r="D20" s="40" t="n"/>
       <c r="E20" s="35" t="n"/>
       <c r="F20" s="8" t="n"/>
@@ -6252,7 +7024,9 @@
       <c r="B21" s="44" t="n">
         <v>42.35</v>
       </c>
-      <c r="C21" s="40" t="n"/>
+      <c r="C21" s="44" t="n">
+        <v>42.27</v>
+      </c>
       <c r="D21" s="40" t="n"/>
       <c r="E21" s="34" t="n"/>
       <c r="F21" s="8" t="n"/>
@@ -6716,7 +7490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
       <selection activeCell="D127" sqref="A1:XFD1048576"/>
@@ -6736,210 +7510,210 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="C2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6947,210 +7721,210 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7158,210 +7932,210 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="C41" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7369,210 +8143,210 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="B52" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="B53" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="B54" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F54" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="B56" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="C57" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="F58" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="B59" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="B60" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F60" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="B62" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F63" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7580,210 +8354,210 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="C66" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="B67" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="F67" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="B68" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="B69" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="B70" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="B72" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="F74" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="B75" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="E75" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="F76" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="B77" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="F77" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="B78" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="F78" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="B79" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F79" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7791,210 +8565,210 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="C82" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="B83" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F83" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E84" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F84" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="C89" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="B90" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F90" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="B91" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E91" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="E92" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F92" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="B93" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E93" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="F93" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="B94" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D94" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="E94" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="B95" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="D95" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="E95" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F95" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8002,210 +8776,210 @@
         <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="C98" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="B99" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E99" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="F99" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="B100" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D100" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="E100" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="F100" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="B101" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D101" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F101" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="B102" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="D102" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F102" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="B104" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="C105" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F105" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="B106" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="E106" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F106" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="B107" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D107" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="E107" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="F107" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="B108" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="D108" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="E108" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F108" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="B109" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E109" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="F109" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="B110" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C110" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="D110" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="F110" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="B111" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="D111" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="E111" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F111" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -8213,210 +8987,210 @@
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="C114" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E114" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F114" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="B115" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D115" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="F115" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="B116" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="D116" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E116" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F116" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="B117" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="D117" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E117" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="B118" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D118" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="F118" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="B120" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="C121" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D121" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E121" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F121" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="B122" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D122" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="E122" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="F122" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="B123" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F123" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="B124" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="E124" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F124" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="B125" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D125" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="E125" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F125" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="B126" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C126" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="E126" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="F126" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="B127" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C127" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="D127" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E127" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="F127" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -8424,210 +9198,210 @@
         <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="C130" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D130" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E130" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F130" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="B131" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="D131" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="E131" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="F131" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C132" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D132" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="E132" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="F132" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="B133" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C133" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="D133" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="E133" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="F133" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="B134" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C134" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D134" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="E134" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="F134" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="B136" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="C137" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D137" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E137" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F137" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="B138" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C138" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="D138" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E138" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="F138" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="B139" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C139" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D139" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F139" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="B140" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D140" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="E140" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F140" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="B141" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C141" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="D141" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="E141" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="F141" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="B142" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C142" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="D142" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E142" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F142" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="B143" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="D143" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="E143" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="F143" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -8635,210 +9409,210 @@
         <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="C146" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D146" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E146" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F146" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="B147" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C147" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="D147" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="E147" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="F147" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="B148" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C148" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="D148" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="E148" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="F148" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="B149" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C149" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D149" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E149" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F149" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="B150" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C150" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="E150" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="F150" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="B152" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="C153" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D153" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E153" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F153" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="B154" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C154" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D154" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E154" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="F154" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="B155" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D155" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E155" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="F155" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="B156" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C156" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D156" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="F156" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="B157" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C157" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D157" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="E157" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="F157" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="B158" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C158" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D158" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="E158" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="F158" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="B159" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C159" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="D159" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="E159" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="F159" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -8846,210 +9620,210 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="C162" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D162" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E162" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F162" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="B163" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C163" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="D163" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="E163" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="F163" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="B164" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C164" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="D164" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="E164" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="B165" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C165" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="D165" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="E165" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F165" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="B166" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C166" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="D166" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F166" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="B168" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="C169" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D169" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E169" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F169" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="B170" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C170" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="D170" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="E170" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="F170" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="B171" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C171" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D171" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E171" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F171" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="B172" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C172" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="D172" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E172" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="F172" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="B173" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C173" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="D173" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="E173" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="F173" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="B174" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="D174" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="E174" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F174" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="B175" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C175" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="D175" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E175" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -9057,210 +9831,210 @@
         <v>32</v>
       </c>
       <c r="B177" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="C178" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D178" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E178" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F178" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="B179" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C179" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="D179" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="E179" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="F179" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="B180" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C180" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="D180" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="E180" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="F180" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="B181" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C181" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D181" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="E181" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="F181" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="B182" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C182" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D182" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="E182" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="F182" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="B184" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="C185" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D185" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E185" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F185" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="B186" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C186" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="D186" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="E186" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="F186" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="B187" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C187" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D187" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E187" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F187" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="B188" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C188" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="D188" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="E188" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="F188" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="B189" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C189" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="D189" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="E189" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="F189" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="B190" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C190" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="D190" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="E190" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="F190" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="B191" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C191" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D191" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E191" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="F191" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -9268,210 +10042,210 @@
         <v>33</v>
       </c>
       <c r="B193" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="C194" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D194" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="E194" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="F194" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="B195" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C195" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D195" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="E195" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="F195" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="B196" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C196" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D196" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E196" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F196" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="B197" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C197" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D197" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E197" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F197" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="B198" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C198" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="D198" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E198" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F198" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="B200" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="C201" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="D201" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="B202" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C202" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="D202" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E202" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="B203" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C203" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D203" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="E203" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F203" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="B204" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C204" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="D204" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E204" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="B205" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C205" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="D205" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E205" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="B206" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C206" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D206" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="E206" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="F206" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="B207" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C207" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="D207" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -9479,210 +10253,210 @@
         <v>36</v>
       </c>
       <c r="B209" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="C210" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D210" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E210" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F210" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C211" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D211" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="B212" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C212" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="D212" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="E212" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C213" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="D213" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E213" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F213" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C214" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="D214" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="E214" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="C217" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D217" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E217" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F217" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="B218" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C218" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D218" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="B219" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C219" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D219" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E219" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F219" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="B220" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C220" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D220" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="E220" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="F220" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="B221" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C221" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D221" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="E221" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="F221" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="B222" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C222" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="D222" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="E222" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="F222" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="B223" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C223" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="D223" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -9690,210 +10464,210 @@
         <v>37</v>
       </c>
       <c r="B225" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="C226" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D226" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E226" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F226" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="B227" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C227" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="D227" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="E227" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F227" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="B228" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C228" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="D228" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="F228" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="B229" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C229" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D229" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="B230" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C230" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="D230" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="F230" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="B232" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="C233" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D233" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E233" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F233" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="B234" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C234" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D234" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="E234" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="B235" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C235" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D235" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E235" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F235" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="B236" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C236" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="D236" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="B237" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C237" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="D237" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="E237" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="F237" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="B238" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C238" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="D238" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="B239" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C239" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="D239" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="E239" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="F239" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9901,210 +10675,210 @@
         <v>38</v>
       </c>
       <c r="B241" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="C242" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D242" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E242" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F242" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="B243" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C243" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="D243" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="E243" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="B244" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C244" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="D244" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="E244" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F244" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="B245" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C245" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="D245" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E245" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F245" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="B246" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C246" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="D246" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="E246" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F246" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="B248" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="C249" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D249" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E249" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F249" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="B250" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C250" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="D250" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="B251" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C251" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D251" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E251" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F251" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="B252" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="D252" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E252" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="F252" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="B253" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C253" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="D253" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="E253" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="F253" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="B254" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C254" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="D254" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E254" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="F254" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="B255" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C255" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="D255" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="E255" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="F255" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -10112,210 +10886,210 @@
         <v>40</v>
       </c>
       <c r="B257" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="C258" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D258" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E258" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F258" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="B259" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C259" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="D259" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="E259" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="B260" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C260" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="D260" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="E260" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="F260" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="B261" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C261" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D261" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="E261" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F261" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="B262" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C262" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D262" t="s">
+        <v>231</v>
+      </c>
+      <c r="E262" t="s">
+        <v>504</v>
+      </c>
+      <c r="F262" t="s">
         <v>210</v>
-      </c>
-      <c r="E262" t="s">
-        <v>483</v>
-      </c>
-      <c r="F262" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="B264" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="C265" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D265" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E265" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F265" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="B266" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C266" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D266" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E266" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="B267" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C267" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D267" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E267" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F267" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="B268" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C268" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D268" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E268" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="B269" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C269" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D269" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E269" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="F269" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="B270" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C270" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D270" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="E270" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="F270" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="B271" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C271" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="D271" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="E271" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="F271" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -10323,210 +11097,210 @@
         <v>41</v>
       </c>
       <c r="B273" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="C274" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D274" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E274" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F274" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="B275" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C275" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D275" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="E275" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="F275" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="B276" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C276" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="D276" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="E276" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="F276" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="B277" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C277" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D277" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="E277" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="F277" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="B278" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C278" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D278" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="E278" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="F278" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="B280" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="C281" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D281" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E281" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F281" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="B282" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C282" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="D282" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="E282" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="B283" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C283" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D283" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E283" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F283" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="B284" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C284" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="D284" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="E284" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="F284" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="B285" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C285" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D285" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="E285" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="F285" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="B286" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C286" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="D286" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="E286" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="F286" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="B287" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C287" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="D287" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="E287" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -10534,210 +11308,210 @@
         <v>42</v>
       </c>
       <c r="B289" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="C290" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D290" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E290" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F290" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="B291" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C291" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D291" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="E291" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="F291" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="B292" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C292" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="D292" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="E292" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="F292" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="B293" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C293" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D293" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E293" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="F293" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="B294" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C294" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="D294" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="E294" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="F294" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="B296" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="C297" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D297" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E297" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F297" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="B298" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C298" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="D298" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="E298" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="F298" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="B299" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C299" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D299" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E299" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F299" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="B300" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C300" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D300" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="E300" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="F300" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="B301" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C301" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="D301" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="E301" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="F301" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="B302" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C302" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D302" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="E302" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="F302" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="B303" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C303" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="D303" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="E303" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="F303" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -10745,212 +11519,213 @@
         <v>44</v>
       </c>
       <c r="B305" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="C306" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D306" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E306" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F306" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="B307" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C307" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="D307" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="E307" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F307" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="B308" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C308" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="D308" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="E308" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F308" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="B309" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C309" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="D309" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="E309" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F309" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="B310" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C310" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="D310" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="E310" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="F310" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="B312" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="C313" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D313" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E313" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F313" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="B314" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C314" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="D314" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="E314" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="F314" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="B315" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C315" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D315" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E315" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F315" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="B316" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C316" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D316" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="E316" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="F316" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="B317" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C317" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D317" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="E317" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="F317" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="B318" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C318" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="D318" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="E318" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="F318" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="B319" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C319" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="D319" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E319" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="F319" t="s">
-        <v>544</v>
-      </c>
-    </row>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
